--- a/biology/Histoire de la zoologie et de la botanique/George_Caley/George_Caley.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Caley/George_Caley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Caley, né le 10 juin 1770 à Craven dans le Yorkshire et mort le 23 mai 1829 à Londres, est un botaniste et un explorateur britannique. Caley a été employé par Joseph Banks pour collecter échantillons botanique dans la région autour de Sydney en Australie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un marchand de chevaux, il reçoit une éducation à l'école libre de grammaire à Manchester avant de travailler dans les étables de son père.
 En mars 1795, il écrit à Sir Joseph Banks qui lui conseille, pour compléter le maigre salaire de botaniste de travailler comme jardinier, occupation lui permettant en outre d'accroître ses connaissances. C'est ainsi qu'il trouve un travail au jardin botanique du Kew Gardens qui le charge de partir en Australie afin d'y collecter de nouveaux spécimens. Il arrive à Sydney le 15 avril 1800. Banks lui donne un salaire comme botaniste collecteur et ainsi que des vivres.
